--- a/input/general/Abbreviations.xlsx
+++ b/input/general/Abbreviations.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F6F52-2E92-4754-AD66-9742D0AB7287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8A7AC7-0FED-4624-A6E4-A4FFF9B4B9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{250AE073-3CA7-4531-A739-9626BD1B2E66}"/>
+    <workbookView xWindow="3285" yWindow="2025" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2616,7 +2615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2626,19 +2625,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>535</v>
       </c>
@@ -2652,7 +2648,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2666,7 +2662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2680,7 +2676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2694,7 +2690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2708,7 +2704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2722,7 +2718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2736,7 +2732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2750,7 +2746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2764,7 +2760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2778,7 +2774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2792,7 +2788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2806,7 +2802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2820,7 +2816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2834,7 +2830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2848,7 +2844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2862,7 +2858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2876,7 +2872,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2890,7 +2886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2904,7 +2900,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2918,7 +2914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -2932,7 +2928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2946,7 +2942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2974,7 +2970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2988,7 +2984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -3002,7 +2998,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -3016,7 +3012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -3030,7 +3026,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -3044,7 +3040,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -3058,7 +3054,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3072,7 +3068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -3086,7 +3082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -3100,7 +3096,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -3114,7 +3110,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -3128,7 +3124,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -3142,7 +3138,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -3156,7 +3152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -3170,7 +3166,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -3184,7 +3180,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -3198,7 +3194,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -3209,7 +3205,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -3231,7 +3227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -3242,7 +3238,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -3253,7 +3249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -3264,7 +3260,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -3275,7 +3271,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -3286,7 +3282,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -3297,7 +3293,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -3308,7 +3304,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -3319,7 +3315,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -3330,7 +3326,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -3341,7 +3337,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -3352,7 +3348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -3363,7 +3359,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -3374,7 +3370,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -3385,7 +3381,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -3396,7 +3392,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -3407,7 +3403,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -3418,7 +3414,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -3429,7 +3425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -3451,7 +3447,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -3462,7 +3458,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -3473,7 +3469,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -3484,7 +3480,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -3495,7 +3491,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -3506,7 +3502,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -3517,7 +3513,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -3528,7 +3524,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -3539,7 +3535,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>167</v>
       </c>
@@ -3550,7 +3546,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -3561,7 +3557,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -3572,7 +3568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -3583,7 +3579,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -3594,7 +3590,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>175</v>
       </c>
@@ -3605,7 +3601,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -3616,7 +3612,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -3627,7 +3623,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -3638,7 +3634,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -3649,7 +3645,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -3660,7 +3656,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -3671,7 +3667,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -3682,7 +3678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -3693,7 +3689,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -3704,7 +3700,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>195</v>
       </c>
@@ -3715,7 +3711,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>197</v>
       </c>
@@ -3726,7 +3722,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>199</v>
       </c>
@@ -3737,7 +3733,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>201</v>
       </c>
@@ -3748,7 +3744,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>203</v>
       </c>
@@ -3759,7 +3755,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>205</v>
       </c>
@@ -3770,7 +3766,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>207</v>
       </c>
@@ -3781,7 +3777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -3792,7 +3788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>209</v>
       </c>
@@ -3803,7 +3799,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>211</v>
       </c>
@@ -3814,7 +3810,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -3825,7 +3821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -3836,7 +3832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>213</v>
       </c>
@@ -3847,7 +3843,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>215</v>
       </c>
@@ -3869,7 +3865,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>217</v>
       </c>
@@ -3880,7 +3876,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -3891,7 +3887,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>221</v>
       </c>
@@ -3902,7 +3898,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -3913,7 +3909,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>225</v>
       </c>
@@ -3924,7 +3920,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>227</v>
       </c>
@@ -3935,7 +3931,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>229</v>
       </c>
@@ -3946,7 +3942,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -3957,7 +3953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>231</v>
       </c>
@@ -3968,7 +3964,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -3979,7 +3975,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -3990,7 +3986,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>237</v>
       </c>
@@ -4001,7 +3997,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -4012,7 +4008,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -4023,7 +4019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -4034,7 +4030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -4045,7 +4041,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>243</v>
       </c>
@@ -4056,7 +4052,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -4067,7 +4063,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>247</v>
       </c>
@@ -4078,7 +4074,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -4089,7 +4085,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>251</v>
       </c>
@@ -4100,7 +4096,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4111,7 +4107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>253</v>
       </c>
@@ -4122,7 +4118,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -4133,7 +4129,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>257</v>
       </c>
@@ -4144,7 +4140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>258</v>
       </c>
@@ -4155,7 +4151,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>260</v>
       </c>
@@ -4166,7 +4162,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>262</v>
       </c>
@@ -4177,7 +4173,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>264</v>
       </c>
@@ -4188,7 +4184,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>266</v>
       </c>
@@ -4199,7 +4195,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>268</v>
       </c>
@@ -4210,7 +4206,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>270</v>
       </c>
@@ -4221,7 +4217,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>272</v>
       </c>
@@ -4232,7 +4228,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>274</v>
       </c>
@@ -4243,7 +4239,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>276</v>
       </c>
@@ -4254,7 +4250,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>278</v>
       </c>
@@ -4265,7 +4261,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>280</v>
       </c>
@@ -4276,7 +4272,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -4287,7 +4283,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>284</v>
       </c>
@@ -4298,7 +4294,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>74</v>
       </c>
@@ -4309,7 +4305,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>91</v>
       </c>
@@ -4320,7 +4316,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>286</v>
       </c>
@@ -4331,7 +4327,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>288</v>
       </c>
@@ -4342,7 +4338,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>290</v>
       </c>
@@ -4353,7 +4349,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>292</v>
       </c>
@@ -4364,7 +4360,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>25</v>
       </c>
@@ -4375,7 +4371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -4386,7 +4382,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -4397,7 +4393,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>28</v>
       </c>
@@ -4408,7 +4404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -4419,7 +4415,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -4430,7 +4426,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -4441,7 +4437,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -4452,7 +4448,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -4463,7 +4459,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -4474,7 +4470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -4485,7 +4481,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -4496,7 +4492,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>313</v>
       </c>
@@ -4507,7 +4503,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>314</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>316</v>
       </c>
@@ -4529,7 +4525,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>318</v>
       </c>
@@ -4540,7 +4536,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>34</v>
       </c>
@@ -4551,7 +4547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>319</v>
       </c>
@@ -4562,7 +4558,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>321</v>
       </c>
@@ -4573,7 +4569,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>323</v>
       </c>
@@ -4584,7 +4580,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>325</v>
       </c>
@@ -4595,7 +4591,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -4606,7 +4602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -4617,7 +4613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>40</v>
       </c>
@@ -4628,7 +4624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>327</v>
       </c>
@@ -4639,7 +4635,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>329</v>
       </c>
@@ -4650,7 +4646,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>331</v>
       </c>
@@ -4661,7 +4657,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>333</v>
       </c>
@@ -4672,7 +4668,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>335</v>
       </c>
@@ -4683,7 +4679,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>337</v>
       </c>
@@ -4694,7 +4690,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>43</v>
       </c>
@@ -4705,7 +4701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>339</v>
       </c>
@@ -4716,7 +4712,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>341</v>
       </c>
@@ -4727,7 +4723,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>343</v>
       </c>
@@ -4738,7 +4734,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>345</v>
       </c>
@@ -4749,7 +4745,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>347</v>
       </c>
@@ -4760,7 +4756,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>349</v>
       </c>
@@ -4771,7 +4767,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>351</v>
       </c>
@@ -4782,7 +4778,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>353</v>
       </c>
@@ -4793,7 +4789,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>355</v>
       </c>
@@ -4804,7 +4800,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>357</v>
       </c>
@@ -4815,7 +4811,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>109</v>
       </c>
@@ -4826,7 +4822,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>359</v>
       </c>
@@ -4837,7 +4833,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>361</v>
       </c>
@@ -4848,7 +4844,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>363</v>
       </c>
@@ -4859,7 +4855,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>365</v>
       </c>
@@ -4870,7 +4866,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>367</v>
       </c>
@@ -4881,7 +4877,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>369</v>
       </c>
@@ -4892,7 +4888,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>371</v>
       </c>
@@ -4903,7 +4899,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -4914,7 +4910,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>374</v>
       </c>
@@ -4925,7 +4921,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>376</v>
       </c>
@@ -4936,7 +4932,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>378</v>
       </c>
@@ -4947,7 +4943,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>380</v>
       </c>
@@ -4958,7 +4954,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>382</v>
       </c>
@@ -4969,7 +4965,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>384</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>386</v>
       </c>
@@ -4991,7 +4987,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>388</v>
       </c>
@@ -5002,7 +4998,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>97</v>
       </c>
@@ -5013,7 +5009,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>390</v>
       </c>
@@ -5024,7 +5020,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>392</v>
       </c>
@@ -5035,7 +5031,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>394</v>
       </c>
@@ -5046,7 +5042,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>396</v>
       </c>
@@ -5057,7 +5053,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>398</v>
       </c>
@@ -5068,7 +5064,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>400</v>
       </c>
@@ -5079,7 +5075,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>402</v>
       </c>
@@ -5090,7 +5086,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>404</v>
       </c>
@@ -5101,7 +5097,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>406</v>
       </c>
@@ -5112,7 +5108,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>407</v>
       </c>
@@ -5123,7 +5119,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>51</v>
       </c>
@@ -5134,7 +5130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>54</v>
       </c>
@@ -5145,7 +5141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>409</v>
       </c>
@@ -5156,7 +5152,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>411</v>
       </c>
@@ -5167,7 +5163,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>94</v>
       </c>
@@ -5178,7 +5174,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>56</v>
       </c>
@@ -5189,7 +5185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>414</v>
       </c>
@@ -5200,7 +5196,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>416</v>
       </c>
@@ -5211,7 +5207,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>418</v>
       </c>
@@ -5222,7 +5218,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>420</v>
       </c>
@@ -5233,7 +5229,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>422</v>
       </c>
@@ -5244,7 +5240,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>424</v>
       </c>
@@ -5255,7 +5251,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>426</v>
       </c>
@@ -5266,7 +5262,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>428</v>
       </c>
@@ -5277,7 +5273,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>430</v>
       </c>
@@ -5288,7 +5284,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>432</v>
       </c>
@@ -5299,7 +5295,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>434</v>
       </c>
@@ -5310,7 +5306,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>436</v>
       </c>
@@ -5321,7 +5317,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>438</v>
       </c>
@@ -5332,7 +5328,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>440</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>442</v>
       </c>
@@ -5354,7 +5350,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>106</v>
       </c>
@@ -5365,7 +5361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>444</v>
       </c>
@@ -5376,7 +5372,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>446</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>448</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>450</v>
       </c>
@@ -5409,7 +5405,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>62</v>
       </c>
@@ -5420,7 +5416,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>65</v>
       </c>
@@ -5431,7 +5427,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>452</v>
       </c>
@@ -5442,7 +5438,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>454</v>
       </c>
@@ -5453,7 +5449,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>456</v>
       </c>
@@ -5464,7 +5460,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>458</v>
       </c>
@@ -5475,7 +5471,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>460</v>
       </c>
@@ -5486,7 +5482,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>68</v>
       </c>
@@ -5497,7 +5493,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>462</v>
       </c>
@@ -5508,7 +5504,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>464</v>
       </c>
@@ -5519,7 +5515,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>466</v>
       </c>
@@ -5530,7 +5526,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>468</v>
       </c>
@@ -5541,7 +5537,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>59</v>
       </c>
@@ -5552,7 +5548,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>100</v>
       </c>
@@ -5563,7 +5559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>470</v>
       </c>
@@ -5574,7 +5570,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>472</v>
       </c>
@@ -5585,7 +5581,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>474</v>
       </c>
@@ -5596,7 +5592,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>476</v>
       </c>
@@ -5607,7 +5603,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>478</v>
       </c>
@@ -5618,7 +5614,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>480</v>
       </c>
@@ -5629,7 +5625,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>482</v>
       </c>
@@ -5640,7 +5636,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>484</v>
       </c>
@@ -5651,7 +5647,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>486</v>
       </c>
@@ -5662,7 +5658,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>488</v>
       </c>
@@ -5673,7 +5669,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>490</v>
       </c>
@@ -5684,7 +5680,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>103</v>
       </c>
@@ -5695,7 +5691,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>492</v>
       </c>
@@ -5706,7 +5702,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>494</v>
       </c>
@@ -5717,7 +5713,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>496</v>
       </c>
@@ -5728,7 +5724,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>498</v>
       </c>
@@ -5739,7 +5735,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>500</v>
       </c>
@@ -5750,7 +5746,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>502</v>
       </c>
@@ -5761,7 +5757,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>504</v>
       </c>
@@ -5772,7 +5768,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>506</v>
       </c>
@@ -5783,7 +5779,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>508</v>
       </c>
@@ -5794,7 +5790,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>510</v>
       </c>
@@ -5805,7 +5801,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>512</v>
       </c>
@@ -5816,7 +5812,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>514</v>
       </c>
@@ -5827,7 +5823,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>516</v>
       </c>
@@ -5838,7 +5834,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>518</v>
       </c>
@@ -5849,7 +5845,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>519</v>
       </c>
@@ -5860,7 +5856,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>521</v>
       </c>
@@ -5871,7 +5867,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>523</v>
       </c>
@@ -5882,7 +5878,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>525</v>
       </c>
@@ -5893,7 +5889,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>527</v>
       </c>
@@ -5904,7 +5900,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>529</v>
       </c>
@@ -5915,7 +5911,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>531</v>
       </c>
@@ -5926,7 +5922,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>533</v>
       </c>
@@ -5947,13 +5943,10 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>581</v>
       </c>

--- a/input/general/Abbreviations.xlsx
+++ b/input/general/Abbreviations.xlsx
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">Griechenland</t>
   </si>
   <si>
-    <t xml:space="preserve">GR</t>
+    <t xml:space="preserve">EL</t>
   </si>
   <si>
     <t xml:space="preserve">GRC</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">Vereinigtes Königreich</t>
   </si>
   <si>
-    <t xml:space="preserve">GB</t>
+    <t xml:space="preserve">UK</t>
   </si>
   <si>
     <t xml:space="preserve">GBR</t>
@@ -3626,59 +3626,13 @@
     <t xml:space="preserve">[1]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">English names, abbreviations, region etc. adapted from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/lukes/ISO-3166-Countries-with-Regional-Codes/blob/master/all/all.csv</t>
-    </r>
+    <t xml:space="preserve">English names, abbreviations, region etc. adapted from https://github.com/lukes/ISO-3166-Countries-with-Regional-Codes/blob/master/all/all.csv</t>
   </si>
   <si>
     <t xml:space="preserve">[2]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">German translations adapted from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://stefangabos.github.io/world_countries/</t>
-    </r>
+    <t xml:space="preserve">German translations adapted from https://stefangabos.github.io/world_countries/</t>
   </si>
 </sst>
 </file>
@@ -3688,7 +3642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3710,12 +3664,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3760,7 +3708,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3769,7 +3717,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3792,8 +3744,8 @@
   </sheetPr>
   <dimension ref="A1:L250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C235" activeCellId="0" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6866,7 +6818,7 @@
       <c r="B88" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>444</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -12475,36 +12427,36 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -12513,7 +12465,7 @@
     <mergeCell ref="B4:O4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://stefangabos.github.io/world_countries/"/>
+    <hyperlink ref="B5" r:id="rId1" display="German translations adapted from https://stefangabos.github.io/world_countries/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/input/general/Abbreviations.xlsx
+++ b/input/general/Abbreviations.xlsx
@@ -308,7 +308,7 @@
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
-    <t xml:space="preserve">Österreich</t>
+    <t xml:space="preserve">Oesterreich</t>
   </si>
   <si>
     <t xml:space="preserve">AT</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Dänemark</t>
+    <t xml:space="preserve">Daenemark</t>
   </si>
   <si>
     <t xml:space="preserve">DK</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">Romania</t>
   </si>
   <si>
-    <t xml:space="preserve">Rumänien</t>
+    <t xml:space="preserve">Rumaenien</t>
   </si>
   <si>
     <t xml:space="preserve">RO</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Vereinigtes Königreich</t>
+    <t xml:space="preserve">Vereinigtes Koenigreich</t>
   </si>
   <si>
     <t xml:space="preserve">UK</t>
@@ -3744,8 +3744,8 @@
   </sheetPr>
   <dimension ref="A1:L250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C235" activeCellId="0" sqref="C235"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
